--- a/predictions/Прогнозы_ETS_EA12.xlsx
+++ b/predictions/Прогнозы_ETS_EA12.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17218939.46277768</v>
+        <v>19825703.06527325</v>
       </c>
       <c r="C2" t="n">
-        <v>21180976.93014649</v>
+        <v>20128567.79228543</v>
       </c>
       <c r="D2" t="n">
-        <v>21459260.95009145</v>
+        <v>18921564.23909711</v>
       </c>
       <c r="E2" t="n">
-        <v>20174519.69528979</v>
+        <v>17663655.47128179</v>
       </c>
       <c r="F2" t="n">
-        <v>18729645.9420055</v>
+        <v>19710597.40506782</v>
       </c>
       <c r="G2" t="n">
-        <v>20767561.91753305</v>
+        <v>19621151.68675455</v>
       </c>
       <c r="H2" t="n">
-        <v>20688952.55753149</v>
+        <v>21145668.49495173</v>
       </c>
       <c r="I2" t="n">
-        <v>22273274.27343078</v>
+        <v>20159682.47453942</v>
       </c>
       <c r="J2" t="n">
-        <v>21252900.0752046</v>
+        <v>21270226.24664227</v>
       </c>
       <c r="K2" t="n">
-        <v>22338768.63197782</v>
+        <v>21044434.2812824</v>
       </c>
       <c r="L2" t="n">
-        <v>21970549.07211804</v>
+        <v>21993346.82426965</v>
       </c>
       <c r="M2" t="n">
-        <v>22796523.31042945</v>
+        <v>17930114.89023443</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15577886.23830513</v>
+        <v>10511138.44850356</v>
       </c>
       <c r="C3" t="n">
-        <v>16479103.46406213</v>
+        <v>17626177.73431463</v>
       </c>
       <c r="D3" t="n">
-        <v>17381268.73922063</v>
+        <v>9229171.937148588</v>
       </c>
       <c r="E3" t="n">
-        <v>18281365.07387227</v>
+        <v>11889592.84030556</v>
       </c>
       <c r="F3" t="n">
-        <v>19182939.79541064</v>
+        <v>8462651.751330895</v>
       </c>
       <c r="G3" t="n">
-        <v>20083674.60967897</v>
+        <v>7300885.283078286</v>
       </c>
       <c r="H3" t="n">
-        <v>20984689.39133734</v>
+        <v>10545954.03868957</v>
       </c>
       <c r="I3" t="n">
-        <v>21886265.2884719</v>
+        <v>13575350.48853024</v>
       </c>
       <c r="J3" t="n">
-        <v>22787908.41587989</v>
+        <v>12399674.22320815</v>
       </c>
       <c r="K3" t="n">
-        <v>23688946.66502823</v>
+        <v>15280462.39364558</v>
       </c>
       <c r="L3" t="n">
-        <v>24590477.43316658</v>
+        <v>11581069.36247791</v>
       </c>
       <c r="M3" t="n">
-        <v>25491386.91279234</v>
+        <v>7895546.818942806</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27084857.70713026</v>
+        <v>61987145.72198774</v>
       </c>
       <c r="C4" t="n">
-        <v>30376077.39303723</v>
+        <v>70918600.12155825</v>
       </c>
       <c r="D4" t="n">
-        <v>33667176.1661158</v>
+        <v>79850558.05582894</v>
       </c>
       <c r="E4" t="n">
-        <v>36958721.8027332</v>
+        <v>88782052.3358635</v>
       </c>
       <c r="F4" t="n">
-        <v>40249880.36674117</v>
+        <v>97713864.13428678</v>
       </c>
       <c r="G4" t="n">
-        <v>43541245.83108668</v>
+        <v>106645315.2154832</v>
       </c>
       <c r="H4" t="n">
-        <v>46832447.8009907</v>
+        <v>115577155.5971881</v>
       </c>
       <c r="I4" t="n">
-        <v>50123758.0465825</v>
+        <v>124508410.5002418</v>
       </c>
       <c r="J4" t="n">
-        <v>53414420.98130242</v>
+        <v>133440285.337821</v>
       </c>
       <c r="K4" t="n">
-        <v>56706630.01693045</v>
+        <v>142369987.043875</v>
       </c>
       <c r="L4" t="n">
-        <v>59996448.93641394</v>
+        <v>151303306.7026308</v>
       </c>
       <c r="M4" t="n">
-        <v>63288269.92804142</v>
+        <v>160235016.9955587</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21270162.53517867</v>
+        <v>28500869.64500738</v>
       </c>
       <c r="C5" t="n">
-        <v>24173348.9628828</v>
+        <v>28293115.39132736</v>
       </c>
       <c r="D5" t="n">
-        <v>27076535.3906133</v>
+        <v>31505672.90169438</v>
       </c>
       <c r="E5" t="n">
-        <v>29980111.31721525</v>
+        <v>37079645.04025713</v>
       </c>
       <c r="F5" t="n">
-        <v>32886237.8379906</v>
+        <v>35060284.18082292</v>
       </c>
       <c r="G5" t="n">
-        <v>35794276.39404029</v>
+        <v>37090822.19117132</v>
       </c>
       <c r="H5" t="n">
-        <v>38695553.79406381</v>
+        <v>37687121.96142789</v>
       </c>
       <c r="I5" t="n">
-        <v>41606342.61822315</v>
+        <v>36959448.49390461</v>
       </c>
       <c r="J5" t="n">
-        <v>44523011.26671004</v>
+        <v>39670866.02030952</v>
       </c>
       <c r="K5" t="n">
-        <v>47389625.38253038</v>
+        <v>43926954.22212748</v>
       </c>
       <c r="L5" t="n">
-        <v>50283395.47896159</v>
+        <v>65035431.63512165</v>
       </c>
       <c r="M5" t="n">
-        <v>53219888.80235671</v>
+        <v>19979648.40235809</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8202541.438532191</v>
+        <v>2029956.148558962</v>
       </c>
       <c r="C6" t="n">
-        <v>13119976.78151729</v>
+        <v>2329883.10667446</v>
       </c>
       <c r="D6" t="n">
-        <v>11042189.37949756</v>
+        <v>946540.2573699045</v>
       </c>
       <c r="E6" t="n">
-        <v>11523172.18402258</v>
+        <v>3677831.649733466</v>
       </c>
       <c r="F6" t="n">
-        <v>13924720.75285321</v>
+        <v>-148398.5417655136</v>
       </c>
       <c r="G6" t="n">
-        <v>13253277.33588846</v>
+        <v>991681.8052974645</v>
       </c>
       <c r="H6" t="n">
-        <v>13399919.42954063</v>
+        <v>505261.1963852238</v>
       </c>
       <c r="I6" t="n">
-        <v>13965728.70633101</v>
+        <v>1179363.042176079</v>
       </c>
       <c r="J6" t="n">
-        <v>13796935.88999302</v>
+        <v>221090.6627586316</v>
       </c>
       <c r="K6" t="n">
-        <v>13987132.46034396</v>
+        <v>1545016.654167234</v>
       </c>
       <c r="L6" t="n">
-        <v>15325290.70638816</v>
+        <v>863322.7379944648</v>
       </c>
       <c r="M6" t="n">
-        <v>22931646.08800713</v>
+        <v>679876.0838227571</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1150973.350689107</v>
+        <v>13355832.31617907</v>
       </c>
       <c r="C7" t="n">
-        <v>2912758.805704287</v>
+        <v>13631399.97070664</v>
       </c>
       <c r="D7" t="n">
-        <v>2873588.77096714</v>
+        <v>13314947.9013937</v>
       </c>
       <c r="E7" t="n">
-        <v>3193777.771676137</v>
+        <v>13737583.35178277</v>
       </c>
       <c r="F7" t="n">
-        <v>2032532.791576996</v>
+        <v>13484551.20533391</v>
       </c>
       <c r="G7" t="n">
-        <v>3480751.463299708</v>
+        <v>13902030.21299432</v>
       </c>
       <c r="H7" t="n">
-        <v>2782607.916425144</v>
+        <v>14091609.00503734</v>
       </c>
       <c r="I7" t="n">
-        <v>2425556.840894949</v>
+        <v>14251411.27369638</v>
       </c>
       <c r="J7" t="n">
-        <v>2925714.227684246</v>
+        <v>14684519.34551251</v>
       </c>
       <c r="K7" t="n">
-        <v>2783393.620558164</v>
+        <v>14523325.90821722</v>
       </c>
       <c r="L7" t="n">
-        <v>2818498.878950556</v>
+        <v>15436448.03751173</v>
       </c>
       <c r="M7" t="n">
-        <v>4184881.091804283</v>
+        <v>15234112.81060609</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>856032.5308517197</v>
+        <v>19098747.17714699</v>
       </c>
       <c r="C8" t="n">
-        <v>1229713.876200554</v>
+        <v>20187871.01387675</v>
       </c>
       <c r="D8" t="n">
-        <v>1454666.881970334</v>
+        <v>20295322.92173954</v>
       </c>
       <c r="E8" t="n">
-        <v>1268714.609300468</v>
+        <v>19336838.73904363</v>
       </c>
       <c r="F8" t="n">
-        <v>1324189.067194632</v>
+        <v>19586044.53025497</v>
       </c>
       <c r="G8" t="n">
-        <v>1223316.346201069</v>
+        <v>18990809.2141396</v>
       </c>
       <c r="H8" t="n">
-        <v>1630201.208351104</v>
+        <v>18096674.72419075</v>
       </c>
       <c r="I8" t="n">
-        <v>1581651.809467327</v>
+        <v>18491128.41028254</v>
       </c>
       <c r="J8" t="n">
-        <v>1714193.969510869</v>
+        <v>19426450.24139496</v>
       </c>
       <c r="K8" t="n">
-        <v>1900314.640457856</v>
+        <v>21489022.34020169</v>
       </c>
       <c r="L8" t="n">
-        <v>2303392.360079693</v>
+        <v>24023792.38359476</v>
       </c>
       <c r="M8" t="n">
-        <v>1783633.203570938</v>
+        <v>14765935.60560513</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12154468.10611313</v>
+        <v>26261605.11837779</v>
       </c>
       <c r="C9" t="n">
-        <v>15202495.65718486</v>
+        <v>29871531.35699892</v>
       </c>
       <c r="D9" t="n">
-        <v>18246746.48444161</v>
+        <v>30409959.84479316</v>
       </c>
       <c r="E9" t="n">
-        <v>21286079.34344332</v>
+        <v>32851506.12242066</v>
       </c>
       <c r="F9" t="n">
-        <v>24333612.3365488</v>
+        <v>36151803.31138647</v>
       </c>
       <c r="G9" t="n">
-        <v>27365560.63328792</v>
+        <v>34311361.8936885</v>
       </c>
       <c r="H9" t="n">
-        <v>30421411.6678477</v>
+        <v>36123064.84326807</v>
       </c>
       <c r="I9" t="n">
-        <v>33465247.14043799</v>
+        <v>31701661.3810712</v>
       </c>
       <c r="J9" t="n">
-        <v>36508387.44843238</v>
+        <v>36790748.65613479</v>
       </c>
       <c r="K9" t="n">
-        <v>39568249.0259714</v>
+        <v>36555189.09509812</v>
       </c>
       <c r="L9" t="n">
-        <v>42596618.34716192</v>
+        <v>41392158.79556713</v>
       </c>
       <c r="M9" t="n">
-        <v>45650015.31319971</v>
+        <v>31917096.1416604</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3445973.280169497</v>
+        <v>15149501.27085154</v>
       </c>
       <c r="C10" t="n">
-        <v>5786253.094408262</v>
+        <v>15156892.41993907</v>
       </c>
       <c r="D10" t="n">
-        <v>7237046.5510464</v>
+        <v>15163974.00816029</v>
       </c>
       <c r="E10" t="n">
-        <v>8265336.534291625</v>
+        <v>15170818.03514941</v>
       </c>
       <c r="F10" t="n">
-        <v>7983003.185891705</v>
+        <v>15177531.88826025</v>
       </c>
       <c r="G10" t="n">
-        <v>7483348.626381507</v>
+        <v>15185479.72165151</v>
       </c>
       <c r="H10" t="n">
-        <v>7963095.71427525</v>
+        <v>15191193.83528699</v>
       </c>
       <c r="I10" t="n">
-        <v>8858905.545302158</v>
+        <v>15198005.74234843</v>
       </c>
       <c r="J10" t="n">
-        <v>9375188.021295754</v>
+        <v>15205621.37663335</v>
       </c>
       <c r="K10" t="n">
-        <v>8341540.46526666</v>
+        <v>15212772.68136083</v>
       </c>
       <c r="L10" t="n">
-        <v>11460742.39339065</v>
+        <v>15219757.96908112</v>
       </c>
       <c r="M10" t="n">
-        <v>22403526.87713512</v>
+        <v>15225747.05399753</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>69620.03517722851</v>
+        <v>19493240.92227293</v>
       </c>
       <c r="C11" t="n">
-        <v>1463747.489491952</v>
+        <v>20102944.39577648</v>
       </c>
       <c r="D11" t="n">
-        <v>1362712.362374649</v>
+        <v>20712964.25665151</v>
       </c>
       <c r="E11" t="n">
-        <v>461601.2615382745</v>
+        <v>21322709.93075997</v>
       </c>
       <c r="F11" t="n">
-        <v>6012216.380365068</v>
+        <v>21933107.76508749</v>
       </c>
       <c r="G11" t="n">
-        <v>-870149.0717692859</v>
+        <v>22542570.15427182</v>
       </c>
       <c r="H11" t="n">
-        <v>368322.3152109748</v>
+        <v>23152243.34219162</v>
       </c>
       <c r="I11" t="n">
-        <v>581401.4983965079</v>
+        <v>23762323.98071346</v>
       </c>
       <c r="J11" t="n">
-        <v>1062148.679681375</v>
+        <v>24372827.05263712</v>
       </c>
       <c r="K11" t="n">
-        <v>238232.9181543854</v>
+        <v>24982110.77300569</v>
       </c>
       <c r="L11" t="n">
-        <v>2059757.952987062</v>
+        <v>25591864.71580225</v>
       </c>
       <c r="M11" t="n">
-        <v>1263386.525561411</v>
+        <v>26200961.19158362</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-147583.5093611792</v>
+        <v>42999000.90925159</v>
       </c>
       <c r="C12" t="n">
-        <v>686511.3166387137</v>
+        <v>45749488.00901686</v>
       </c>
       <c r="D12" t="n">
-        <v>1306479.345738915</v>
+        <v>42132200.8668702</v>
       </c>
       <c r="E12" t="n">
-        <v>616003.8398652142</v>
+        <v>38723770.10450369</v>
       </c>
       <c r="F12" t="n">
-        <v>596910.0737575233</v>
+        <v>43982290.70098539</v>
       </c>
       <c r="G12" t="n">
-        <v>387977.0320652616</v>
+        <v>48504660.09684511</v>
       </c>
       <c r="H12" t="n">
-        <v>810755.1666610423</v>
+        <v>44167940.61024626</v>
       </c>
       <c r="I12" t="n">
-        <v>347696.2385973877</v>
+        <v>50169754.23632336</v>
       </c>
       <c r="J12" t="n">
-        <v>608009.1164127494</v>
+        <v>53374865.38930207</v>
       </c>
       <c r="K12" t="n">
-        <v>520607.4800367622</v>
+        <v>55099490.04181631</v>
       </c>
       <c r="L12" t="n">
-        <v>545160.6149857395</v>
+        <v>43792026.48019407</v>
       </c>
       <c r="M12" t="n">
-        <v>645105.9268132776</v>
+        <v>43718503.86000177</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3208697.137267349</v>
+        <v>34763515.48047491</v>
       </c>
       <c r="C13" t="n">
-        <v>3554834.244682314</v>
+        <v>39837845.37082916</v>
       </c>
       <c r="D13" t="n">
-        <v>3901117.905574762</v>
+        <v>32440285.7180225</v>
       </c>
       <c r="E13" t="n">
-        <v>4247156.692735535</v>
+        <v>30215539.30020443</v>
       </c>
       <c r="F13" t="n">
-        <v>4593467.779277135</v>
+        <v>34420801.18486078</v>
       </c>
       <c r="G13" t="n">
-        <v>4939393.944949323</v>
+        <v>41760444.8572992</v>
       </c>
       <c r="H13" t="n">
-        <v>5285684.172082558</v>
+        <v>44538606.29194887</v>
       </c>
       <c r="I13" t="n">
-        <v>5631709.139575873</v>
+        <v>43568576.54052207</v>
       </c>
       <c r="J13" t="n">
-        <v>5977884.067513153</v>
+        <v>46957758.21163144</v>
       </c>
       <c r="K13" t="n">
-        <v>6324142.582304487</v>
+        <v>40413646.09320152</v>
       </c>
       <c r="L13" t="n">
-        <v>6670131.00573419</v>
+        <v>39732146.8345777</v>
       </c>
       <c r="M13" t="n">
-        <v>7016268.291093087</v>
+        <v>35626677.75771576</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>108482.8259712303</v>
+        <v>938828.4534971692</v>
       </c>
       <c r="C14" t="n">
-        <v>238586.1400617829</v>
+        <v>946517.2540135797</v>
       </c>
       <c r="D14" t="n">
-        <v>287963.1558102317</v>
+        <v>952917.9253824687</v>
       </c>
       <c r="E14" t="n">
-        <v>176361.7564560822</v>
+        <v>959277.9819131946</v>
       </c>
       <c r="F14" t="n">
-        <v>154351.039175428</v>
+        <v>970919.3252297712</v>
       </c>
       <c r="G14" t="n">
-        <v>227921.0404178594</v>
+        <v>984210.5273277785</v>
       </c>
       <c r="H14" t="n">
-        <v>258109.2948487625</v>
+        <v>979643.1998734603</v>
       </c>
       <c r="I14" t="n">
-        <v>305195.1002995716</v>
+        <v>989095.0223064461</v>
       </c>
       <c r="J14" t="n">
-        <v>314619.73934791</v>
+        <v>994148.4141524913</v>
       </c>
       <c r="K14" t="n">
-        <v>421777.6583671479</v>
+        <v>1004539.208025725</v>
       </c>
       <c r="L14" t="n">
-        <v>330704.7696629423</v>
+        <v>1016069.973818279</v>
       </c>
       <c r="M14" t="n">
-        <v>410106.9356274924</v>
+        <v>1011224.151298437</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1228637.337695816</v>
+        <v>4724181.712328</v>
       </c>
       <c r="C15" t="n">
-        <v>926092.3226720628</v>
+        <v>5304865.373991892</v>
       </c>
       <c r="D15" t="n">
-        <v>970904.2489754162</v>
+        <v>5489875.140473787</v>
       </c>
       <c r="E15" t="n">
-        <v>1138941.743083244</v>
+        <v>5040865.89027034</v>
       </c>
       <c r="F15" t="n">
-        <v>951837.644598385</v>
+        <v>5301990.016792201</v>
       </c>
       <c r="G15" t="n">
-        <v>1279363.684102833</v>
+        <v>5051911.219685565</v>
       </c>
       <c r="H15" t="n">
-        <v>1086410.406415822</v>
+        <v>5668718.600707604</v>
       </c>
       <c r="I15" t="n">
-        <v>1388212.342634513</v>
+        <v>5611175.045788012</v>
       </c>
       <c r="J15" t="n">
-        <v>1189668.134071662</v>
+        <v>5780868.099615048</v>
       </c>
       <c r="K15" t="n">
-        <v>969798.6176723251</v>
+        <v>6187739.104686278</v>
       </c>
       <c r="L15" t="n">
-        <v>977495.3153130554</v>
+        <v>6194861.754449918</v>
       </c>
       <c r="M15" t="n">
-        <v>2329719.301013875</v>
+        <v>6134088.676891439</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1644326.222405096</v>
+        <v>8162325.394840633</v>
       </c>
       <c r="C16" t="n">
-        <v>1769295.789325794</v>
+        <v>9558433.208914433</v>
       </c>
       <c r="D16" t="n">
-        <v>1794997.892004013</v>
+        <v>10898920.99119591</v>
       </c>
       <c r="E16" t="n">
-        <v>1847285.760248092</v>
+        <v>9963401.879645586</v>
       </c>
       <c r="F16" t="n">
-        <v>1936412.317296649</v>
+        <v>10193903.50651032</v>
       </c>
       <c r="G16" t="n">
-        <v>1953367.107367459</v>
+        <v>10699465.87279615</v>
       </c>
       <c r="H16" t="n">
-        <v>2040233.589920338</v>
+        <v>9632683.980251865</v>
       </c>
       <c r="I16" t="n">
-        <v>2081597.596775827</v>
+        <v>11877862.70925377</v>
       </c>
       <c r="J16" t="n">
-        <v>2116882.532144453</v>
+        <v>11399884.44936682</v>
       </c>
       <c r="K16" t="n">
-        <v>2257220.094099643</v>
+        <v>12049477.05131955</v>
       </c>
       <c r="L16" t="n">
-        <v>2249268.473649818</v>
+        <v>12328000.51659299</v>
       </c>
       <c r="M16" t="n">
-        <v>2429091.694453778</v>
+        <v>10689406.28592807</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6290119.770018186</v>
+        <v>5647577.656636616</v>
       </c>
       <c r="C17" t="n">
-        <v>6387225.45663037</v>
+        <v>5769106.454624737</v>
       </c>
       <c r="D17" t="n">
-        <v>6483881.978940125</v>
+        <v>5908963.566224509</v>
       </c>
       <c r="E17" t="n">
-        <v>6580451.062372048</v>
+        <v>6037887.376597714</v>
       </c>
       <c r="F17" t="n">
-        <v>6677733.409045047</v>
+        <v>6176920.310503857</v>
       </c>
       <c r="G17" t="n">
-        <v>6773739.598842998</v>
+        <v>6313080.817567743</v>
       </c>
       <c r="H17" t="n">
-        <v>6870710.968721792</v>
+        <v>6452699.482688664</v>
       </c>
       <c r="I17" t="n">
-        <v>6967515.144269373</v>
+        <v>6577844.370701433</v>
       </c>
       <c r="J17" t="n">
-        <v>7064272.851878294</v>
+        <v>6721745.580874039</v>
       </c>
       <c r="K17" t="n">
-        <v>7160905.917705101</v>
+        <v>6853573.599572575</v>
       </c>
       <c r="L17" t="n">
-        <v>7257803.308948325</v>
+        <v>6987985.714763409</v>
       </c>
       <c r="M17" t="n">
-        <v>7355097.476385524</v>
+        <v>7090066.1387994</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>125250.4630449148</v>
+        <v>3908798.381026155</v>
       </c>
       <c r="C18" t="n">
-        <v>207456.8307779153</v>
+        <v>3934893.566841015</v>
       </c>
       <c r="D18" t="n">
-        <v>254004.853589443</v>
+        <v>4094707.731761728</v>
       </c>
       <c r="E18" t="n">
-        <v>164319.5739241987</v>
+        <v>4701205.996464193</v>
       </c>
       <c r="F18" t="n">
-        <v>-237573.3147179473</v>
+        <v>3567933.632788934</v>
       </c>
       <c r="G18" t="n">
-        <v>35305.84676162264</v>
+        <v>3916731.306486106</v>
       </c>
       <c r="H18" t="n">
-        <v>-571463.6443496095</v>
+        <v>3299177.187330924</v>
       </c>
       <c r="I18" t="n">
-        <v>-646577.7964747644</v>
+        <v>4086835.64463481</v>
       </c>
       <c r="J18" t="n">
-        <v>-558831.0034591409</v>
+        <v>3952400.134886003</v>
       </c>
       <c r="K18" t="n">
-        <v>-929572.9975775478</v>
+        <v>4440231.689933502</v>
       </c>
       <c r="L18" t="n">
-        <v>-484174.3275656552</v>
+        <v>4009228.386382497</v>
       </c>
       <c r="M18" t="n">
-        <v>237021.1192921477</v>
+        <v>3891227.062603544</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-59672.26633931318</v>
+        <v>5411608.299195925</v>
       </c>
       <c r="C19" t="n">
-        <v>-29832.25360887503</v>
+        <v>6934537.546852335</v>
       </c>
       <c r="D19" t="n">
-        <v>1380.327121843351</v>
+        <v>4191409.729145519</v>
       </c>
       <c r="E19" t="n">
-        <v>-57382.93439866052</v>
+        <v>3763007.898222411</v>
       </c>
       <c r="F19" t="n">
-        <v>-30691.19276345925</v>
+        <v>4600063.699938646</v>
       </c>
       <c r="G19" t="n">
-        <v>-70573.2414539204</v>
+        <v>5524252.562617978</v>
       </c>
       <c r="H19" t="n">
-        <v>-52937.58161574106</v>
+        <v>7538485.710435431</v>
       </c>
       <c r="I19" t="n">
-        <v>-80810.22466835569</v>
+        <v>5147295.840160385</v>
       </c>
       <c r="J19" t="n">
-        <v>-60985.61366727744</v>
+        <v>7157117.813142084</v>
       </c>
       <c r="K19" t="n">
-        <v>-64711.8567527257</v>
+        <v>6199459.44978324</v>
       </c>
       <c r="L19" t="n">
-        <v>-79296.74244791354</v>
+        <v>5741213.699019169</v>
       </c>
       <c r="M19" t="n">
-        <v>-19473.31814072319</v>
+        <v>5016913.0290218</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1389801.057630097</v>
+        <v>1539856.737516917</v>
       </c>
       <c r="C20" t="n">
-        <v>3015225.379469277</v>
+        <v>1200165.799151269</v>
       </c>
       <c r="D20" t="n">
-        <v>1973974.834526418</v>
+        <v>-409026.3741313077</v>
       </c>
       <c r="E20" t="n">
-        <v>2372314.798738831</v>
+        <v>286261.1927455448</v>
       </c>
       <c r="F20" t="n">
-        <v>2449668.733071046</v>
+        <v>1046398.190281745</v>
       </c>
       <c r="G20" t="n">
-        <v>2507687.809885644</v>
+        <v>91081.46856389631</v>
       </c>
       <c r="H20" t="n">
-        <v>2075239.768166426</v>
+        <v>-422125.4101623144</v>
       </c>
       <c r="I20" t="n">
-        <v>2756339.302214415</v>
+        <v>29162.4648949074</v>
       </c>
       <c r="J20" t="n">
-        <v>3249305.024642844</v>
+        <v>594205.9797939224</v>
       </c>
       <c r="K20" t="n">
-        <v>1969853.749588924</v>
+        <v>575000.2666582891</v>
       </c>
       <c r="L20" t="n">
-        <v>2506822.085581555</v>
+        <v>-542973.3384243982</v>
       </c>
       <c r="M20" t="n">
-        <v>2203644.289791243</v>
+        <v>-692211.9746010101</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1116075.008581335</v>
+        <v>2982151.608791095</v>
       </c>
       <c r="C21" t="n">
-        <v>2377633.942988092</v>
+        <v>3600705.422063066</v>
       </c>
       <c r="D21" t="n">
-        <v>1239485.084914748</v>
+        <v>3614163.481814086</v>
       </c>
       <c r="E21" t="n">
-        <v>2079497.786742726</v>
+        <v>4052039.648677077</v>
       </c>
       <c r="F21" t="n">
-        <v>2726181.978335741</v>
+        <v>4171299.212602255</v>
       </c>
       <c r="G21" t="n">
-        <v>1022779.168937297</v>
+        <v>3424259.702459766</v>
       </c>
       <c r="H21" t="n">
-        <v>1441467.412406392</v>
+        <v>3290498.371841849</v>
       </c>
       <c r="I21" t="n">
-        <v>1404158.90374923</v>
+        <v>2776625.385050929</v>
       </c>
       <c r="J21" t="n">
-        <v>913281.7493833425</v>
+        <v>3764894.403867299</v>
       </c>
       <c r="K21" t="n">
-        <v>1893463.246172645</v>
+        <v>4377797.785942286</v>
       </c>
       <c r="L21" t="n">
-        <v>1422602.614833482</v>
+        <v>5121974.857192761</v>
       </c>
       <c r="M21" t="n">
-        <v>1407983.717104814</v>
+        <v>3350953.574257778</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>586558.5260419018</v>
+        <v>9587605.447460433</v>
       </c>
       <c r="C22" t="n">
-        <v>636433.9761306895</v>
+        <v>12455678.15028125</v>
       </c>
       <c r="D22" t="n">
-        <v>686814.9154797299</v>
+        <v>13553087.62942648</v>
       </c>
       <c r="E22" t="n">
-        <v>736541.489558073</v>
+        <v>12554417.61905228</v>
       </c>
       <c r="F22" t="n">
-        <v>786493.557980065</v>
+        <v>15879525.62224651</v>
       </c>
       <c r="G22" t="n">
-        <v>836620.4354540402</v>
+        <v>13036352.06211659</v>
       </c>
       <c r="H22" t="n">
-        <v>886532.9824595471</v>
+        <v>12694510.16297991</v>
       </c>
       <c r="I22" t="n">
-        <v>936603.4528207462</v>
+        <v>17137897.42978283</v>
       </c>
       <c r="J22" t="n">
-        <v>986671.6474365342</v>
+        <v>14168185.59549101</v>
       </c>
       <c r="K22" t="n">
-        <v>1036713.297420184</v>
+        <v>16346477.70391012</v>
       </c>
       <c r="L22" t="n">
-        <v>1086929.569575245</v>
+        <v>13879709.16351081</v>
       </c>
       <c r="M22" t="n">
-        <v>1136886.945671132</v>
+        <v>11029900.45299308</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>25156.94606226182</v>
+        <v>6676612.204052089</v>
       </c>
       <c r="C23" t="n">
-        <v>31897.87263317226</v>
+        <v>5932671.193886314</v>
       </c>
       <c r="D23" t="n">
-        <v>37954.59935008751</v>
+        <v>7739281.016224368</v>
       </c>
       <c r="E23" t="n">
-        <v>43978.68679991164</v>
+        <v>8614529.769715369</v>
       </c>
       <c r="F23" t="n">
-        <v>50413.36825912236</v>
+        <v>7395417.908922526</v>
       </c>
       <c r="G23" t="n">
-        <v>56517.5304069095</v>
+        <v>7941589.770692229</v>
       </c>
       <c r="H23" t="n">
-        <v>62833.86872238646</v>
+        <v>8724751.96144961</v>
       </c>
       <c r="I23" t="n">
-        <v>69134.75761469007</v>
+        <v>7653195.35691496</v>
       </c>
       <c r="J23" t="n">
-        <v>75424.68245194819</v>
+        <v>5368905.989831627</v>
       </c>
       <c r="K23" t="n">
-        <v>81709.73704969522</v>
+        <v>7779427.016726914</v>
       </c>
       <c r="L23" t="n">
-        <v>88001.84079912528</v>
+        <v>4844238.503866252</v>
       </c>
       <c r="M23" t="n">
-        <v>95019.45127600717</v>
+        <v>4114457.834917086</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7536126.535715906</v>
+        <v>11293677.83107411</v>
       </c>
       <c r="C24" t="n">
-        <v>9154659.534349792</v>
+        <v>11983301.84952305</v>
       </c>
       <c r="D24" t="n">
-        <v>8988799.631077714</v>
+        <v>12858455.98176147</v>
       </c>
       <c r="E24" t="n">
-        <v>7593083.507887525</v>
+        <v>9951583.019646635</v>
       </c>
       <c r="F24" t="n">
-        <v>8613574.121998522</v>
+        <v>11366846.3941469</v>
       </c>
       <c r="G24" t="n">
-        <v>8869983.422517261</v>
+        <v>11831389.87042124</v>
       </c>
       <c r="H24" t="n">
-        <v>8831987.81541355</v>
+        <v>10364333.77759974</v>
       </c>
       <c r="I24" t="n">
-        <v>6845924.886099871</v>
+        <v>12542101.38188727</v>
       </c>
       <c r="J24" t="n">
-        <v>8750580.384023886</v>
+        <v>12235616.66991839</v>
       </c>
       <c r="K24" t="n">
-        <v>8772907.966995396</v>
+        <v>14368149.26654399</v>
       </c>
       <c r="L24" t="n">
-        <v>10639449.9006765</v>
+        <v>15235417.51312927</v>
       </c>
       <c r="M24" t="n">
-        <v>12002142.56620757</v>
+        <v>11005693.05918762</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1642790.458366599</v>
+        <v>5375157.549927455</v>
       </c>
       <c r="C25" t="n">
-        <v>2860120.655021885</v>
+        <v>5849451.772546914</v>
       </c>
       <c r="D25" t="n">
-        <v>2443421.145576176</v>
+        <v>5927297.576916139</v>
       </c>
       <c r="E25" t="n">
-        <v>2453234.491536208</v>
+        <v>4590563.278923051</v>
       </c>
       <c r="F25" t="n">
-        <v>2370438.079484515</v>
+        <v>4965804.881947874</v>
       </c>
       <c r="G25" t="n">
-        <v>2267276.274268898</v>
+        <v>5009032.167639989</v>
       </c>
       <c r="H25" t="n">
-        <v>2409173.336074944</v>
+        <v>6642873.608817055</v>
       </c>
       <c r="I25" t="n">
-        <v>2543560.878975194</v>
+        <v>5080937.707705306</v>
       </c>
       <c r="J25" t="n">
-        <v>2145922.086371032</v>
+        <v>5067065.545111837</v>
       </c>
       <c r="K25" t="n">
-        <v>3261459.927142907</v>
+        <v>5267125.655832939</v>
       </c>
       <c r="L25" t="n">
-        <v>2891793.324046716</v>
+        <v>4979410.112512829</v>
       </c>
       <c r="M25" t="n">
-        <v>3041016.544497645</v>
+        <v>3879470.634686842</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>10691415.94328538</v>
+        <v>10352346.4022754</v>
       </c>
       <c r="C26" t="n">
-        <v>10803232.49189145</v>
+        <v>8975118.152128203</v>
       </c>
       <c r="D26" t="n">
-        <v>11776455.95451244</v>
+        <v>7461192.758648497</v>
       </c>
       <c r="E26" t="n">
-        <v>12669554.1664203</v>
+        <v>7787486.769645208</v>
       </c>
       <c r="F26" t="n">
-        <v>13837991.96045318</v>
+        <v>6534692.679344205</v>
       </c>
       <c r="G26" t="n">
-        <v>16494541.08802742</v>
+        <v>7267639.84709092</v>
       </c>
       <c r="H26" t="n">
-        <v>15319402.53930261</v>
+        <v>10904036.30265031</v>
       </c>
       <c r="I26" t="n">
-        <v>15831528.17576717</v>
+        <v>11793856.67976291</v>
       </c>
       <c r="J26" t="n">
-        <v>14219014.55611148</v>
+        <v>12059754.12294592</v>
       </c>
       <c r="K26" t="n">
-        <v>15071392.23028529</v>
+        <v>11851029.01411668</v>
       </c>
       <c r="L26" t="n">
-        <v>16439990.09140421</v>
+        <v>13769740.44228193</v>
       </c>
       <c r="M26" t="n">
-        <v>15898926.19263079</v>
+        <v>11382763.4540951</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>16929272.26917396</v>
+        <v>3469452.146469107</v>
       </c>
       <c r="C27" t="n">
-        <v>18780398.02602882</v>
+        <v>4125672.093285236</v>
       </c>
       <c r="D27" t="n">
-        <v>18367511.51986207</v>
+        <v>3179223.560614772</v>
       </c>
       <c r="E27" t="n">
-        <v>20112560.43334048</v>
+        <v>3113627.985041946</v>
       </c>
       <c r="F27" t="n">
-        <v>19005271.30156805</v>
+        <v>2742283.447677617</v>
       </c>
       <c r="G27" t="n">
-        <v>20270903.13798554</v>
+        <v>4582690.978509428</v>
       </c>
       <c r="H27" t="n">
-        <v>21335456.81629378</v>
+        <v>5325062.0923127</v>
       </c>
       <c r="I27" t="n">
-        <v>22249439.37930785</v>
+        <v>4424257.257159507</v>
       </c>
       <c r="J27" t="n">
-        <v>22039718.70750204</v>
+        <v>4239845.274075119</v>
       </c>
       <c r="K27" t="n">
-        <v>22432760.25963291</v>
+        <v>4457588.127481138</v>
       </c>
       <c r="L27" t="n">
-        <v>22485920.15694582</v>
+        <v>4158569.760899312</v>
       </c>
       <c r="M27" t="n">
-        <v>27587109.70207945</v>
+        <v>1832603.838204472</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>20782043.55179977</v>
+        <v>12559402.95465843</v>
       </c>
       <c r="C28" t="n">
-        <v>21368060.24802544</v>
+        <v>12001089.66159176</v>
       </c>
       <c r="D28" t="n">
-        <v>21954083.62942208</v>
+        <v>12552364.06171555</v>
       </c>
       <c r="E28" t="n">
-        <v>22539784.36977235</v>
+        <v>9064921.330953114</v>
       </c>
       <c r="F28" t="n">
-        <v>23125246.62492622</v>
+        <v>11845653.89204755</v>
       </c>
       <c r="G28" t="n">
-        <v>23710586.54332412</v>
+        <v>14096220.5017504</v>
       </c>
       <c r="H28" t="n">
-        <v>24297166.49989086</v>
+        <v>13395986.61215752</v>
       </c>
       <c r="I28" t="n">
-        <v>24881487.12093032</v>
+        <v>11996905.89850461</v>
       </c>
       <c r="J28" t="n">
-        <v>25466951.93911247</v>
+        <v>11531463.87626814</v>
       </c>
       <c r="K28" t="n">
-        <v>26053223.70391167</v>
+        <v>12015060.99684403</v>
       </c>
       <c r="L28" t="n">
-        <v>26639009.06556595</v>
+        <v>14043380.03625915</v>
       </c>
       <c r="M28" t="n">
-        <v>27224623.85137922</v>
+        <v>10614452.5498863</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>23194719.77843206</v>
+        <v>1825538.42714194</v>
       </c>
       <c r="C29" t="n">
-        <v>24150052.57051705</v>
+        <v>1840884.218044596</v>
       </c>
       <c r="D29" t="n">
-        <v>25104747.3993357</v>
+        <v>1856118.613941355</v>
       </c>
       <c r="E29" t="n">
-        <v>26059895.83995427</v>
+        <v>1871327.947201815</v>
       </c>
       <c r="F29" t="n">
-        <v>27014709.05279271</v>
+        <v>1886630.81792695</v>
       </c>
       <c r="G29" t="n">
-        <v>27970212.1955913</v>
+        <v>1901850.131937474</v>
       </c>
       <c r="H29" t="n">
-        <v>28924662.76372508</v>
+        <v>1916994.770873535</v>
       </c>
       <c r="I29" t="n">
-        <v>29879539.33612774</v>
+        <v>1932357.63373807</v>
       </c>
       <c r="J29" t="n">
-        <v>30834755.32434786</v>
+        <v>1947617.204088442</v>
       </c>
       <c r="K29" t="n">
-        <v>31790283.3096683</v>
+        <v>1962922.30592573</v>
       </c>
       <c r="L29" t="n">
-        <v>32744523.62022296</v>
+        <v>1978095.940143809</v>
       </c>
       <c r="M29" t="n">
-        <v>33699473.96827111</v>
+        <v>1993333.39979396</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>42058149.57672567</v>
+        <v>492095.7017680285</v>
       </c>
       <c r="C30" t="n">
-        <v>44486114.51355595</v>
+        <v>501088.6018648401</v>
       </c>
       <c r="D30" t="n">
-        <v>47237330.26678793</v>
+        <v>510128.0696547954</v>
       </c>
       <c r="E30" t="n">
-        <v>43459647.73768247</v>
+        <v>519072.5579626796</v>
       </c>
       <c r="F30" t="n">
-        <v>40039411.52861165</v>
+        <v>528056.0924645516</v>
       </c>
       <c r="G30" t="n">
-        <v>45364630.42323906</v>
+        <v>537107.3500361013</v>
       </c>
       <c r="H30" t="n">
-        <v>50014228.34584667</v>
+        <v>546076.6750437054</v>
       </c>
       <c r="I30" t="n">
-        <v>45712952.64951577</v>
+        <v>555100.0425648652</v>
       </c>
       <c r="J30" t="n">
-        <v>51716561.86919216</v>
+        <v>564038.3921954898</v>
       </c>
       <c r="K30" t="n">
-        <v>54890732.71250953</v>
+        <v>573054.0592174976</v>
       </c>
       <c r="L30" t="n">
-        <v>56542407.58689742</v>
+        <v>582156.086902649</v>
       </c>
       <c r="M30" t="n">
-        <v>45421785.22098007</v>
+        <v>591038.9586303221</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>32625718.2496635</v>
+        <v>2932317.423640414</v>
       </c>
       <c r="C31" t="n">
-        <v>36585324.71309296</v>
+        <v>3187464.692849625</v>
       </c>
       <c r="D31" t="n">
-        <v>41406453.03349134</v>
+        <v>2843365.361790753</v>
       </c>
       <c r="E31" t="n">
-        <v>35016378.41048719</v>
+        <v>2796940.485200956</v>
       </c>
       <c r="F31" t="n">
-        <v>32680269.84284691</v>
+        <v>2839589.720932783</v>
       </c>
       <c r="G31" t="n">
-        <v>36914576.15697454</v>
+        <v>2773148.137499216</v>
       </c>
       <c r="H31" t="n">
-        <v>43833253.97011789</v>
+        <v>2865935.6294289</v>
       </c>
       <c r="I31" t="n">
-        <v>46768264.58540819</v>
+        <v>2975316.439894571</v>
       </c>
       <c r="J31" t="n">
-        <v>46322425.11110386</v>
+        <v>3058688.939432023</v>
       </c>
       <c r="K31" t="n">
-        <v>49055402.37822534</v>
+        <v>3007181.934231269</v>
       </c>
       <c r="L31" t="n">
-        <v>43165128.18157175</v>
+        <v>3238689.468506109</v>
       </c>
       <c r="M31" t="n">
-        <v>42054236.03669214</v>
+        <v>3233007.506598854</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1575269.580934867</v>
+        <v>1727508.287650198</v>
       </c>
       <c r="C32" t="n">
-        <v>1696335.293479519</v>
+        <v>1945577.980696997</v>
       </c>
       <c r="D32" t="n">
-        <v>1816022.540420718</v>
+        <v>1938274.917284877</v>
       </c>
       <c r="E32" t="n">
-        <v>1934172.104725593</v>
+        <v>1748473.115889978</v>
       </c>
       <c r="F32" t="n">
-        <v>2052175.621986528</v>
+        <v>1760643.817938145</v>
       </c>
       <c r="G32" t="n">
-        <v>2176057.972465935</v>
+        <v>1910223.927773705</v>
       </c>
       <c r="H32" t="n">
-        <v>2301915.847523173</v>
+        <v>1827599.48912231</v>
       </c>
       <c r="I32" t="n">
-        <v>2407753.785027558</v>
+        <v>1857158.457824637</v>
       </c>
       <c r="J32" t="n">
-        <v>2528499.537535801</v>
+        <v>1986287.488363411</v>
       </c>
       <c r="K32" t="n">
-        <v>2644881.526067115</v>
+        <v>1814345.664071402</v>
       </c>
       <c r="L32" t="n">
-        <v>2767388.297016252</v>
+        <v>2282320.660813072</v>
       </c>
       <c r="M32" t="n">
-        <v>2891509.925297264</v>
+        <v>1942744.96257116</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4953840.939999484</v>
+        <v>2907520.763838021</v>
       </c>
       <c r="C33" t="n">
-        <v>5059586.534228808</v>
+        <v>2997785.227439379</v>
       </c>
       <c r="D33" t="n">
-        <v>5515013.075370329</v>
+        <v>3087943.312172958</v>
       </c>
       <c r="E33" t="n">
-        <v>5689884.816907818</v>
+        <v>3178005.910466239</v>
       </c>
       <c r="F33" t="n">
-        <v>5393501.709853048</v>
+        <v>3268384.006348914</v>
       </c>
       <c r="G33" t="n">
-        <v>5629650.98245724</v>
+        <v>3358528.090992392</v>
       </c>
       <c r="H33" t="n">
-        <v>5502113.820141702</v>
+        <v>3448615.876831757</v>
       </c>
       <c r="I33" t="n">
-        <v>6008356.42620323</v>
+        <v>3538791.613166251</v>
       </c>
       <c r="J33" t="n">
-        <v>5997385.115080911</v>
+        <v>3628817.686962632</v>
       </c>
       <c r="K33" t="n">
-        <v>6164180.886041312</v>
+        <v>3718948.610277391</v>
       </c>
       <c r="L33" t="n">
-        <v>6503799.379146498</v>
+        <v>3809337.532865086</v>
       </c>
       <c r="M33" t="n">
-        <v>6534846.703586082</v>
+        <v>3899357.9368163</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>11254481.82582276</v>
+        <v>2206188.030728753</v>
       </c>
       <c r="C34" t="n">
-        <v>9536543.264763994</v>
+        <v>2743545.63919225</v>
       </c>
       <c r="D34" t="n">
-        <v>10876202.88466835</v>
+        <v>2268596.835856277</v>
       </c>
       <c r="E34" t="n">
-        <v>12535853.59543975</v>
+        <v>2790062.445702545</v>
       </c>
       <c r="F34" t="n">
-        <v>11607481.549494</v>
+        <v>3094044.370151536</v>
       </c>
       <c r="G34" t="n">
-        <v>11867922.5466479</v>
+        <v>3187893.993084467</v>
       </c>
       <c r="H34" t="n">
-        <v>12472255.88670905</v>
+        <v>3482286.536372717</v>
       </c>
       <c r="I34" t="n">
-        <v>11280929.30579605</v>
+        <v>3010222.838673263</v>
       </c>
       <c r="J34" t="n">
-        <v>13651185.99301281</v>
+        <v>3811661.513879473</v>
       </c>
       <c r="K34" t="n">
-        <v>13197043.50111874</v>
+        <v>2861839.277490068</v>
       </c>
       <c r="L34" t="n">
-        <v>13902706.37541748</v>
+        <v>3156311.009303316</v>
       </c>
       <c r="M34" t="n">
-        <v>14173583.58988904</v>
+        <v>2571231.159678341</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6161275.571654429</v>
+        <v>1270247.681162947</v>
       </c>
       <c r="C35" t="n">
-        <v>6280991.189840139</v>
+        <v>1982649.613180615</v>
       </c>
       <c r="D35" t="n">
-        <v>6400013.572279561</v>
+        <v>1493215.327270057</v>
       </c>
       <c r="E35" t="n">
-        <v>6519475.582703263</v>
+        <v>1419750.713839622</v>
       </c>
       <c r="F35" t="n">
-        <v>6638675.137667229</v>
+        <v>1277309.022859608</v>
       </c>
       <c r="G35" t="n">
-        <v>6758112.86876375</v>
+        <v>1923586.088338965</v>
       </c>
       <c r="H35" t="n">
-        <v>6877471.677851041</v>
+        <v>1645346.681925176</v>
       </c>
       <c r="I35" t="n">
-        <v>6996907.309080295</v>
+        <v>1918203.77195402</v>
       </c>
       <c r="J35" t="n">
-        <v>7116007.639376854</v>
+        <v>1758784.15984653</v>
       </c>
       <c r="K35" t="n">
-        <v>7235549.563573708</v>
+        <v>1412594.676087336</v>
       </c>
       <c r="L35" t="n">
-        <v>7354801.194711208</v>
+        <v>1968179.317014847</v>
       </c>
       <c r="M35" t="n">
-        <v>7474116.231342071</v>
+        <v>1294373.334738451</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3370221.455923992</v>
+        <v>1686734.117078884</v>
       </c>
       <c r="C36" t="n">
-        <v>3941826.428448638</v>
+        <v>1370633.961739022</v>
       </c>
       <c r="D36" t="n">
-        <v>3966584.174189291</v>
+        <v>1522616.431862367</v>
       </c>
       <c r="E36" t="n">
-        <v>4126908.590095496</v>
+        <v>1304301.12566626</v>
       </c>
       <c r="F36" t="n">
-        <v>4731940.801569196</v>
+        <v>1413895.631239223</v>
       </c>
       <c r="G36" t="n">
-        <v>3597692.5661217</v>
+        <v>1368877.826673319</v>
       </c>
       <c r="H36" t="n">
-        <v>3959638.274727999</v>
+        <v>1134417.029304875</v>
       </c>
       <c r="I36" t="n">
-        <v>3341895.305202158</v>
+        <v>1091170.57949466</v>
       </c>
       <c r="J36" t="n">
-        <v>4140518.358611926</v>
+        <v>1389312.385664559</v>
       </c>
       <c r="K36" t="n">
-        <v>4012400.629558489</v>
+        <v>868292.2802047648</v>
       </c>
       <c r="L36" t="n">
-        <v>4505265.021927515</v>
+        <v>843522.6790176987</v>
       </c>
       <c r="M36" t="n">
-        <v>4073365.964796869</v>
+        <v>1207058.533112517</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3715867.289258207</v>
+        <v>3207592.597883371</v>
       </c>
       <c r="C37" t="n">
-        <v>5351383.741160886</v>
+        <v>4194108.33029055</v>
       </c>
       <c r="D37" t="n">
-        <v>6826385.028634766</v>
+        <v>4060642.682101555</v>
       </c>
       <c r="E37" t="n">
-        <v>4106120.877608063</v>
+        <v>3474363.978033453</v>
       </c>
       <c r="F37" t="n">
-        <v>3682235.441833409</v>
+        <v>3185354.965142646</v>
       </c>
       <c r="G37" t="n">
-        <v>4828078.323395675</v>
+        <v>4048434.388824203</v>
       </c>
       <c r="H37" t="n">
-        <v>5569119.175266048</v>
+        <v>4367909.72452025</v>
       </c>
       <c r="I37" t="n">
-        <v>7454003.103916496</v>
+        <v>3714455.558339514</v>
       </c>
       <c r="J37" t="n">
-        <v>5104759.07353358</v>
+        <v>4217708.368774271</v>
       </c>
       <c r="K37" t="n">
-        <v>7144878.788478809</v>
+        <v>3643748.460385177</v>
       </c>
       <c r="L37" t="n">
-        <v>6056526.453100104</v>
+        <v>2803431.746726179</v>
       </c>
       <c r="M37" t="n">
-        <v>5896692.281260248</v>
+        <v>2681971.542179011</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1137473.993079259</v>
+        <v>4068862.537854553</v>
       </c>
       <c r="C38" t="n">
-        <v>1812203.529569608</v>
+        <v>3892915.816782041</v>
       </c>
       <c r="D38" t="n">
-        <v>1512530.744953951</v>
+        <v>4119887.754548216</v>
       </c>
       <c r="E38" t="n">
-        <v>-101547.2399709364</v>
+        <v>4552614.290733788</v>
       </c>
       <c r="F38" t="n">
-        <v>633552.0733069321</v>
+        <v>4357873.715453248</v>
       </c>
       <c r="G38" t="n">
-        <v>1432262.352363212</v>
+        <v>4521244.256845766</v>
       </c>
       <c r="H38" t="n">
-        <v>511927.8946732036</v>
+        <v>4408688.1461378</v>
       </c>
       <c r="I38" t="n">
-        <v>33763.65451262961</v>
+        <v>5041272.874792053</v>
       </c>
       <c r="J38" t="n">
-        <v>509215.9148735786</v>
+        <v>5653175.306131877</v>
       </c>
       <c r="K38" t="n">
-        <v>1118096.618892755</v>
+        <v>4327477.61663689</v>
       </c>
       <c r="L38" t="n">
-        <v>1113889.900512991</v>
+        <v>5394360.034785314</v>
       </c>
       <c r="M38" t="n">
-        <v>27274.25139998499</v>
+        <v>4000326.890967445</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3929654.242756829</v>
+        <v>4124072.244084456</v>
       </c>
       <c r="C39" t="n">
-        <v>3457866.989288434</v>
+        <v>5129838.502528144</v>
       </c>
       <c r="D39" t="n">
-        <v>4102490.8950226</v>
+        <v>5330557.604622655</v>
       </c>
       <c r="E39" t="n">
-        <v>4153794.846004254</v>
+        <v>5560703.545552027</v>
       </c>
       <c r="F39" t="n">
-        <v>4537002.552021706</v>
+        <v>5573556.405920076</v>
       </c>
       <c r="G39" t="n">
-        <v>4725172.431549272</v>
+        <v>5571077.347681393</v>
       </c>
       <c r="H39" t="n">
-        <v>3996218.923337497</v>
+        <v>6087269.034787997</v>
       </c>
       <c r="I39" t="n">
-        <v>3856032.024767828</v>
+        <v>5050983.296723785</v>
       </c>
       <c r="J39" t="n">
-        <v>3317189.990457418</v>
+        <v>6524922.424054174</v>
       </c>
       <c r="K39" t="n">
-        <v>4309881.879651884</v>
+        <v>4792038.108992064</v>
       </c>
       <c r="L39" t="n">
-        <v>5033921.13120595</v>
+        <v>5139381.266806016</v>
       </c>
       <c r="M39" t="n">
-        <v>5743877.453014445</v>
+        <v>4542557.686616297</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10608031.0879394</v>
+        <v>4383661.947314841</v>
       </c>
       <c r="C40" t="n">
-        <v>9751606.378866542</v>
+        <v>5137450.830025814</v>
       </c>
       <c r="D40" t="n">
-        <v>12519401.70167516</v>
+        <v>5031849.792573681</v>
       </c>
       <c r="E40" t="n">
-        <v>13642275.85955452</v>
+        <v>5091994.184852615</v>
       </c>
       <c r="F40" t="n">
-        <v>12598737.90656537</v>
+        <v>5369055.547070704</v>
       </c>
       <c r="G40" t="n">
-        <v>15862232.65068449</v>
+        <v>5052321.914892032</v>
       </c>
       <c r="H40" t="n">
-        <v>13057137.61509212</v>
+        <v>5355163.691673952</v>
       </c>
       <c r="I40" t="n">
-        <v>12705916.03827784</v>
+        <v>5187150.860799053</v>
       </c>
       <c r="J40" t="n">
-        <v>17079769.88169513</v>
+        <v>5673606.177018063</v>
       </c>
       <c r="K40" t="n">
-        <v>14197074.82889272</v>
+        <v>5135574.108562916</v>
       </c>
       <c r="L40" t="n">
-        <v>16310897.92669007</v>
+        <v>5682319.259255826</v>
       </c>
       <c r="M40" t="n">
-        <v>13907580.44004698</v>
+        <v>4795805.225419451</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1873209.414609804</v>
+        <v>2411538.842019069</v>
       </c>
       <c r="C41" t="n">
-        <v>6743593.293342778</v>
+        <v>3118591.421232718</v>
       </c>
       <c r="D41" t="n">
-        <v>6011832.866260244</v>
+        <v>3535755.138436201</v>
       </c>
       <c r="E41" t="n">
-        <v>7869220.195180045</v>
+        <v>2887955.337805045</v>
       </c>
       <c r="F41" t="n">
-        <v>8784422.861299219</v>
+        <v>3221384.659612378</v>
       </c>
       <c r="G41" t="n">
-        <v>7536592.674707927</v>
+        <v>3330902.39821146</v>
       </c>
       <c r="H41" t="n">
-        <v>8090706.449467391</v>
+        <v>3161715.514217587</v>
       </c>
       <c r="I41" t="n">
-        <v>8854845.865896489</v>
+        <v>3798516.877085791</v>
       </c>
       <c r="J41" t="n">
-        <v>7783373.249192293</v>
+        <v>3734539.40648246</v>
       </c>
       <c r="K41" t="n">
-        <v>5477828.172903744</v>
+        <v>3059427.133882621</v>
       </c>
       <c r="L41" t="n">
-        <v>7904085.766268919</v>
+        <v>3906597.42195767</v>
       </c>
       <c r="M41" t="n">
-        <v>4946255.834370343</v>
+        <v>2780240.185595415</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>8552790.362791486</v>
+        <v>3448345.748882687</v>
       </c>
       <c r="C42" t="n">
-        <v>11263851.89761132</v>
+        <v>3870269.091518463</v>
       </c>
       <c r="D42" t="n">
-        <v>11943191.9889548</v>
+        <v>3788822.269792079</v>
       </c>
       <c r="E42" t="n">
-        <v>12820315.3102778</v>
+        <v>4037970.917956157</v>
       </c>
       <c r="F42" t="n">
-        <v>9924128.321832007</v>
+        <v>4100186.179004049</v>
       </c>
       <c r="G42" t="n">
-        <v>11341901.78423817</v>
+        <v>4213683.045070421</v>
       </c>
       <c r="H42" t="n">
-        <v>11809493.46238686</v>
+        <v>4586793.914958177</v>
       </c>
       <c r="I42" t="n">
-        <v>10352858.66261329</v>
+        <v>4901968.317579182</v>
       </c>
       <c r="J42" t="n">
-        <v>12544121.09824506</v>
+        <v>4940669.54047259</v>
       </c>
       <c r="K42" t="n">
-        <v>12240231.31938307</v>
+        <v>4608954.876225821</v>
       </c>
       <c r="L42" t="n">
-        <v>14346036.23191512</v>
+        <v>4467887.089011999</v>
       </c>
       <c r="M42" t="n">
-        <v>15227373.14938477</v>
+        <v>3336078.052201087</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3754211.488959676</v>
+        <v>2126399.344458479</v>
       </c>
       <c r="C43" t="n">
-        <v>5354621.223755393</v>
+        <v>3223171.845774707</v>
       </c>
       <c r="D43" t="n">
-        <v>5880506.678049322</v>
+        <v>3203749.194001839</v>
       </c>
       <c r="E43" t="n">
-        <v>5901710.398980873</v>
+        <v>3122577.807623447</v>
       </c>
       <c r="F43" t="n">
-        <v>4547580.355976124</v>
+        <v>3088262.909080481</v>
       </c>
       <c r="G43" t="n">
-        <v>4909346.038323861</v>
+        <v>3151782.557346</v>
       </c>
       <c r="H43" t="n">
-        <v>5019130.406697564</v>
+        <v>3137781.434390095</v>
       </c>
       <c r="I43" t="n">
-        <v>6538926.861100523</v>
+        <v>2983922.721805531</v>
       </c>
       <c r="J43" t="n">
-        <v>5143267.806461063</v>
+        <v>3295409.747326395</v>
       </c>
       <c r="K43" t="n">
-        <v>5161014.962360344</v>
+        <v>2809950.599695212</v>
       </c>
       <c r="L43" t="n">
-        <v>5344555.047412421</v>
+        <v>3479603.603156315</v>
       </c>
       <c r="M43" t="n">
-        <v>5149766.787716063</v>
+        <v>2389398.917710051</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>11683445.50262458</v>
+        <v>4821291.013551818</v>
       </c>
       <c r="C44" t="n">
-        <v>12972015.93357083</v>
+        <v>5677256.461944991</v>
       </c>
       <c r="D44" t="n">
-        <v>12054006.05372088</v>
+        <v>5153557.180927</v>
       </c>
       <c r="E44" t="n">
-        <v>10814183.75506096</v>
+        <v>5136432.922910575</v>
       </c>
       <c r="F44" t="n">
-        <v>11268684.01873145</v>
+        <v>5505134.528829424</v>
       </c>
       <c r="G44" t="n">
-        <v>10175002.57229824</v>
+        <v>6173042.914445951</v>
       </c>
       <c r="H44" t="n">
-        <v>11010960.25486653</v>
+        <v>5799345.934318917</v>
       </c>
       <c r="I44" t="n">
-        <v>14645553.4358087</v>
+        <v>6729301.8672717</v>
       </c>
       <c r="J44" t="n">
-        <v>15483586.2970249</v>
+        <v>6184761.327337988</v>
       </c>
       <c r="K44" t="n">
-        <v>15723888.91521987</v>
+        <v>6036040.111631529</v>
       </c>
       <c r="L44" t="n">
-        <v>15482046.52593049</v>
+        <v>6661618.979827928</v>
       </c>
       <c r="M44" t="n">
-        <v>17517717.94139355</v>
+        <v>4931998.221453752</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2952144.972897044</v>
+        <v>2634123.593197948</v>
       </c>
       <c r="C45" t="n">
-        <v>4304926.323078358</v>
+        <v>3043727.003193569</v>
       </c>
       <c r="D45" t="n">
-        <v>4813136.384228555</v>
+        <v>3327861.29746963</v>
       </c>
       <c r="E45" t="n">
-        <v>3516924.627075763</v>
+        <v>3172540.481519607</v>
       </c>
       <c r="F45" t="n">
-        <v>3381434.447648347</v>
+        <v>2728198.292860024</v>
       </c>
       <c r="G45" t="n">
-        <v>2660675.432851546</v>
+        <v>2985755.213267257</v>
       </c>
       <c r="H45" t="n">
-        <v>4237736.3482624</v>
+        <v>2984434.883036021</v>
       </c>
       <c r="I45" t="n">
-        <v>5083426.214228982</v>
+        <v>3201091.607196444</v>
       </c>
       <c r="J45" t="n">
-        <v>4223227.669304463</v>
+        <v>3027953.387577594</v>
       </c>
       <c r="K45" t="n">
-        <v>4045913.772883177</v>
+        <v>2302553.348287287</v>
       </c>
       <c r="L45" t="n">
-        <v>4553252.745065926</v>
+        <v>3229435.737458185</v>
       </c>
       <c r="M45" t="n">
-        <v>4248592.747527893</v>
+        <v>2318139.067823062</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>10804926.81135288</v>
+        <v>2110437.225290695</v>
       </c>
       <c r="C46" t="n">
-        <v>13033537.31147235</v>
+        <v>2781782.819449508</v>
       </c>
       <c r="D46" t="n">
-        <v>12513502.90014806</v>
+        <v>2062426.232221845</v>
       </c>
       <c r="E46" t="n">
-        <v>13051477.21641915</v>
+        <v>2322098.20213186</v>
       </c>
       <c r="F46" t="n">
-        <v>9520481.210257592</v>
+        <v>2219238.568755095</v>
       </c>
       <c r="G46" t="n">
-        <v>12291938.8976062</v>
+        <v>2281971.011801145</v>
       </c>
       <c r="H46" t="n">
-        <v>14388041.76083657</v>
+        <v>2199335.092150341</v>
       </c>
       <c r="I46" t="n">
-        <v>13812712.92934897</v>
+        <v>3152080.908355089</v>
       </c>
       <c r="J46" t="n">
-        <v>12441979.77866468</v>
+        <v>2752265.976434909</v>
       </c>
       <c r="K46" t="n">
-        <v>11976771.82687867</v>
+        <v>1871607.326636569</v>
       </c>
       <c r="L46" t="n">
-        <v>12342964.38510211</v>
+        <v>2230271.497357738</v>
       </c>
       <c r="M46" t="n">
-        <v>14183458.75100242</v>
+        <v>1774986.074055446</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2315806.825932944</v>
+        <v>1872413.842368722</v>
       </c>
       <c r="C47" t="n">
-        <v>2366456.227393467</v>
+        <v>1882858.101336471</v>
       </c>
       <c r="D47" t="n">
-        <v>2417196.451927939</v>
+        <v>1893292.038753256</v>
       </c>
       <c r="E47" t="n">
-        <v>2467842.001691341</v>
+        <v>1903636.669019605</v>
       </c>
       <c r="F47" t="n">
-        <v>2518458.818723852</v>
+        <v>1913933.44265163</v>
       </c>
       <c r="G47" t="n">
-        <v>2569157.150099715</v>
+        <v>1924452.432414586</v>
       </c>
       <c r="H47" t="n">
-        <v>2619785.836586925</v>
+        <v>1934810.079712229</v>
       </c>
       <c r="I47" t="n">
-        <v>2670343.773768622</v>
+        <v>1945266.739181628</v>
       </c>
       <c r="J47" t="n">
-        <v>2721093.502167902</v>
+        <v>1955695.260422485</v>
       </c>
       <c r="K47" t="n">
-        <v>2771763.238806666</v>
+        <v>1965977.797078765</v>
       </c>
       <c r="L47" t="n">
-        <v>2822469.513584541</v>
+        <v>1976456.91615825</v>
       </c>
       <c r="M47" t="n">
-        <v>2873059.009148954</v>
+        <v>1986828.843318432</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>456530.8226846248</v>
+        <v>4795233.070073202</v>
       </c>
       <c r="C48" t="n">
-        <v>463303.8432296677</v>
+        <v>5427454.485240222</v>
       </c>
       <c r="D48" t="n">
-        <v>470070.6228877632</v>
+        <v>5938725.001415445</v>
       </c>
       <c r="E48" t="n">
-        <v>476886.2624523026</v>
+        <v>4922785.701104988</v>
       </c>
       <c r="F48" t="n">
-        <v>483601.3340762987</v>
+        <v>4786152.90436105</v>
       </c>
       <c r="G48" t="n">
-        <v>490358.0497203123</v>
+        <v>5416323.715738425</v>
       </c>
       <c r="H48" t="n">
-        <v>497185.99861151</v>
+        <v>4585647.6145521</v>
       </c>
       <c r="I48" t="n">
-        <v>503927.022983423</v>
+        <v>5245440.125208029</v>
       </c>
       <c r="J48" t="n">
-        <v>510725.2848236451</v>
+        <v>6423087.977112995</v>
       </c>
       <c r="K48" t="n">
-        <v>517433.7749601738</v>
+        <v>4711655.457589913</v>
       </c>
       <c r="L48" t="n">
-        <v>524224.2869502836</v>
+        <v>5608123.552197198</v>
       </c>
       <c r="M48" t="n">
-        <v>531105.3256971515</v>
+        <v>4449211.13241832</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>573280.3671846369</v>
+        <v>1012851.163061605</v>
       </c>
       <c r="C49" t="n">
-        <v>845864.6254855881</v>
+        <v>1238764.457597796</v>
       </c>
       <c r="D49" t="n">
-        <v>924399.2930144884</v>
+        <v>1208434.491010285</v>
       </c>
       <c r="E49" t="n">
-        <v>638986.6990017501</v>
+        <v>1005027.413997296</v>
       </c>
       <c r="F49" t="n">
-        <v>663333.9491667056</v>
+        <v>1083035.238726533</v>
       </c>
       <c r="G49" t="n">
-        <v>648452.9518184443</v>
+        <v>1064577.937190144</v>
       </c>
       <c r="H49" t="n">
-        <v>609048.348925997</v>
+        <v>1098699.4797214</v>
       </c>
       <c r="I49" t="n">
-        <v>613996.2334408027</v>
+        <v>1465808.318051375</v>
       </c>
       <c r="J49" t="n">
-        <v>723102.9049460357</v>
+        <v>1281121.36100794</v>
       </c>
       <c r="K49" t="n">
-        <v>824721.9042152205</v>
+        <v>947182.7331552324</v>
       </c>
       <c r="L49" t="n">
-        <v>796106.4897347066</v>
+        <v>1281753.095051433</v>
       </c>
       <c r="M49" t="n">
-        <v>1057978.84891638</v>
+        <v>1070646.917381208</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1554729.546593221</v>
+        <v>2824874.52784143</v>
       </c>
       <c r="C50" t="n">
-        <v>1659888.662714357</v>
+        <v>2887218.028373685</v>
       </c>
       <c r="D50" t="n">
-        <v>1801060.828804349</v>
+        <v>2951298.555961021</v>
       </c>
       <c r="E50" t="n">
-        <v>1811551.651860988</v>
+        <v>2999449.07717512</v>
       </c>
       <c r="F50" t="n">
-        <v>1685533.796554728</v>
+        <v>3072829.880569144</v>
       </c>
       <c r="G50" t="n">
-        <v>1753841.818280502</v>
+        <v>3106296.422638462</v>
       </c>
       <c r="H50" t="n">
-        <v>1831805.156589573</v>
+        <v>3169393.824532602</v>
       </c>
       <c r="I50" t="n">
-        <v>1813200.173208995</v>
+        <v>3220495.672281945</v>
       </c>
       <c r="J50" t="n">
-        <v>1890039.107734911</v>
+        <v>3271899.213629984</v>
       </c>
       <c r="K50" t="n">
-        <v>1987905.041404287</v>
+        <v>3324809.293980739</v>
       </c>
       <c r="L50" t="n">
-        <v>1979753.496929297</v>
+        <v>3389747.538121116</v>
       </c>
       <c r="M50" t="n">
-        <v>2354936.541774702</v>
+        <v>3423022.293895265</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>3034920.250855131</v>
+        <v>3217831.875011097</v>
       </c>
       <c r="C51" t="n">
-        <v>3122025.574662157</v>
+        <v>3244470.249684044</v>
       </c>
       <c r="D51" t="n">
-        <v>3209268.919890036</v>
+        <v>3410510.937189199</v>
       </c>
       <c r="E51" t="n">
-        <v>3296404.511404076</v>
+        <v>3328473.086497266</v>
       </c>
       <c r="F51" t="n">
-        <v>3383446.016503092</v>
+        <v>3351256.238744594</v>
       </c>
       <c r="G51" t="n">
-        <v>3470799.412729026</v>
+        <v>3404354.245103058</v>
       </c>
       <c r="H51" t="n">
-        <v>3557919.223918969</v>
+        <v>3520316.468844795</v>
       </c>
       <c r="I51" t="n">
-        <v>3644985.062846509</v>
+        <v>3683438.229974058</v>
       </c>
       <c r="J51" t="n">
-        <v>3732138.730331235</v>
+        <v>3674552.346283783</v>
       </c>
       <c r="K51" t="n">
-        <v>3819144.339384481</v>
+        <v>3491853.076596659</v>
       </c>
       <c r="L51" t="n">
-        <v>3906254.557432144</v>
+        <v>3588395.678552947</v>
       </c>
       <c r="M51" t="n">
-        <v>3993618.265168238</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>1956923.998975256</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1980161.535212988</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2559723.051603301</v>
-      </c>
-      <c r="E52" t="n">
-        <v>2002236.646662668</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2564655.006645513</v>
-      </c>
-      <c r="G52" t="n">
-        <v>2897161.026434464</v>
-      </c>
-      <c r="H52" t="n">
-        <v>3032833.777818759</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3303192.172936975</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2746636.726164816</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3630196.93298072</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2601662.680025327</v>
-      </c>
-      <c r="M52" t="n">
-        <v>2899728.760885927</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1578024.180129834</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1681931.359601988</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1951789.985255321</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1730548.706895564</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1733970.113349637</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1714959.72113665</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2009468.063655951</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1867308.750800748</v>
-      </c>
-      <c r="J53" t="n">
-        <v>2030322.350880554</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1994069.478106409</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1794203.919476927</v>
-      </c>
-      <c r="M53" t="n">
-        <v>2036337.686134159</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1083260.945743113</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1707492.975103996</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1393278.738395339</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1540222.841320919</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1320597.925470281</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1423242.915860537</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1367511.70875462</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1123974.721886241</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1072561.227251277</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1361200.219980431</v>
-      </c>
-      <c r="L54" t="n">
-        <v>831383.1393414331</v>
-      </c>
-      <c r="M54" t="n">
-        <v>792580.676105348</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>3447142.702669959</v>
-      </c>
-      <c r="C55" t="n">
-        <v>3253523.750339745</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4241175.27891981</v>
-      </c>
-      <c r="E55" t="n">
-        <v>4131135.791910893</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3549212.109913286</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3246010.56665178</v>
-      </c>
-      <c r="H55" t="n">
-        <v>4124725.239746929</v>
-      </c>
-      <c r="I55" t="n">
-        <v>4454757.213406976</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3808979.039314031</v>
-      </c>
-      <c r="K55" t="n">
-        <v>4316792.816761342</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3748597.435879517</v>
-      </c>
-      <c r="M55" t="n">
-        <v>2912261.065868837</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>3560784.852716147</v>
-      </c>
-      <c r="C56" t="n">
-        <v>4070973.485269265</v>
-      </c>
-      <c r="D56" t="n">
-        <v>4052549.558652646</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4143130.42575075</v>
-      </c>
-      <c r="F56" t="n">
-        <v>4719439.614024445</v>
-      </c>
-      <c r="G56" t="n">
-        <v>4759340.278970819</v>
-      </c>
-      <c r="H56" t="n">
-        <v>4964584.620220111</v>
-      </c>
-      <c r="I56" t="n">
-        <v>4875630.963198195</v>
-      </c>
-      <c r="J56" t="n">
-        <v>5272210.469998884</v>
-      </c>
-      <c r="K56" t="n">
-        <v>5677833.413826767</v>
-      </c>
-      <c r="L56" t="n">
-        <v>5038393.062907422</v>
-      </c>
-      <c r="M56" t="n">
-        <v>5791293.957800415</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>4715887.151683793</v>
-      </c>
-      <c r="C57" t="n">
-        <v>4680755.940967616</v>
-      </c>
-      <c r="D57" t="n">
-        <v>5978521.624775038</v>
-      </c>
-      <c r="E57" t="n">
-        <v>5999950.438941017</v>
-      </c>
-      <c r="F57" t="n">
-        <v>6165712.341196428</v>
-      </c>
-      <c r="G57" t="n">
-        <v>6087240.975751161</v>
-      </c>
-      <c r="H57" t="n">
-        <v>5949103.705548115</v>
-      </c>
-      <c r="I57" t="n">
-        <v>6672162.106768968</v>
-      </c>
-      <c r="J57" t="n">
-        <v>5242765.836025096</v>
-      </c>
-      <c r="K57" t="n">
-        <v>7034798.971807612</v>
-      </c>
-      <c r="L57" t="n">
-        <v>5159334.861118672</v>
-      </c>
-      <c r="M57" t="n">
-        <v>5676982.275199515</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>4196379.710658422</v>
-      </c>
-      <c r="C58" t="n">
-        <v>4387500.450165616</v>
-      </c>
-      <c r="D58" t="n">
-        <v>4861884.798031716</v>
-      </c>
-      <c r="E58" t="n">
-        <v>4983340.859295213</v>
-      </c>
-      <c r="F58" t="n">
-        <v>5132342.272931519</v>
-      </c>
-      <c r="G58" t="n">
-        <v>5461515.640283897</v>
-      </c>
-      <c r="H58" t="n">
-        <v>5135041.02158473</v>
-      </c>
-      <c r="I58" t="n">
-        <v>5553247.973499517</v>
-      </c>
-      <c r="J58" t="n">
-        <v>5256076.043319025</v>
-      </c>
-      <c r="K58" t="n">
-        <v>5806823.870153451</v>
-      </c>
-      <c r="L58" t="n">
-        <v>5128932.865959043</v>
-      </c>
-      <c r="M58" t="n">
-        <v>5849139.774279978</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>3672456.899132292</v>
-      </c>
-      <c r="C59" t="n">
-        <v>2242132.891836891</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3222499.729871525</v>
-      </c>
-      <c r="E59" t="n">
-        <v>3994554.336828195</v>
-      </c>
-      <c r="F59" t="n">
-        <v>3043717.650279258</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3581950.93070249</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3342802.087545541</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3154704.032749968</v>
-      </c>
-      <c r="J59" t="n">
-        <v>4131420.684750006</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3930989.704350103</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3083908.705739541</v>
-      </c>
-      <c r="M59" t="n">
-        <v>3989813.791400399</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>3185071.100074486</v>
-      </c>
-      <c r="C60" t="n">
-        <v>3411178.126043754</v>
-      </c>
-      <c r="D60" t="n">
-        <v>3851888.640312571</v>
-      </c>
-      <c r="E60" t="n">
-        <v>3746791.76200401</v>
-      </c>
-      <c r="F60" t="n">
-        <v>4012784.013208907</v>
-      </c>
-      <c r="G60" t="n">
-        <v>4094744.275156798</v>
-      </c>
-      <c r="H60" t="n">
-        <v>4241130.553346628</v>
-      </c>
-      <c r="I60" t="n">
-        <v>4593407.437786846</v>
-      </c>
-      <c r="J60" t="n">
-        <v>4924089.802607712</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4987996.762938045</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4663507.629157165</v>
-      </c>
-      <c r="M60" t="n">
-        <v>4529600.995031887</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2261312.085155416</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2207011.701714166</v>
-      </c>
-      <c r="D61" t="n">
-        <v>3308800.734022682</v>
-      </c>
-      <c r="E61" t="n">
-        <v>3293565.105349916</v>
-      </c>
-      <c r="F61" t="n">
-        <v>3210482.232540594</v>
-      </c>
-      <c r="G61" t="n">
-        <v>3170893.462444059</v>
-      </c>
-      <c r="H61" t="n">
-        <v>3235333.469867501</v>
-      </c>
-      <c r="I61" t="n">
-        <v>3220873.782530981</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3064906.955441522</v>
-      </c>
-      <c r="K61" t="n">
-        <v>3379611.091507685</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2885570.612393052</v>
-      </c>
-      <c r="M61" t="n">
-        <v>3560441.932822681</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>4746984.743220188</v>
-      </c>
-      <c r="C62" t="n">
-        <v>4816229.678711552</v>
-      </c>
-      <c r="D62" t="n">
-        <v>5694248.899540734</v>
-      </c>
-      <c r="E62" t="n">
-        <v>5183439.574675838</v>
-      </c>
-      <c r="F62" t="n">
-        <v>5144439.411584257</v>
-      </c>
-      <c r="G62" t="n">
-        <v>5438848.939210738</v>
-      </c>
-      <c r="H62" t="n">
-        <v>6067147.525532661</v>
-      </c>
-      <c r="I62" t="n">
-        <v>5765964.142109099</v>
-      </c>
-      <c r="J62" t="n">
-        <v>6637855.907784659</v>
-      </c>
-      <c r="K62" t="n">
-        <v>6088605.573950035</v>
-      </c>
-      <c r="L62" t="n">
-        <v>5977166.748177615</v>
-      </c>
-      <c r="M62" t="n">
-        <v>6552730.202933908</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>2321258.67275213</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2645702.307340477</v>
-      </c>
-      <c r="D63" t="n">
-        <v>3051827.805380139</v>
-      </c>
-      <c r="E63" t="n">
-        <v>3299507.343652237</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3181643.748738958</v>
-      </c>
-      <c r="G63" t="n">
-        <v>2932928.197422766</v>
-      </c>
-      <c r="H63" t="n">
-        <v>3241394.147269582</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3236557.151179258</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3528882.166970741</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3254508.04285445</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2688430.06015895</v>
-      </c>
-      <c r="M63" t="n">
-        <v>3426201.872175498</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2028990.784368715</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2245393.477910209</v>
-      </c>
-      <c r="D64" t="n">
-        <v>3071416.734935802</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2262893.27743082</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2456498.861027418</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2395940.847839897</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2470093.090716641</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2384862.748861869</v>
-      </c>
-      <c r="J64" t="n">
-        <v>3525514.875664202</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2995720.28417849</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2104709.544926478</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2487702.658448914</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>2374105.160332445</v>
-      </c>
-      <c r="C65" t="n">
-        <v>2376165.298334774</v>
-      </c>
-      <c r="D65" t="n">
-        <v>2419708.518138808</v>
-      </c>
-      <c r="E65" t="n">
-        <v>2502523.090249147</v>
-      </c>
-      <c r="F65" t="n">
-        <v>2564902.074850732</v>
-      </c>
-      <c r="G65" t="n">
-        <v>2494095.115693124</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2612200.079591136</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2602072.922026749</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2654562.076073054</v>
-      </c>
-      <c r="K65" t="n">
-        <v>2765266.372648728</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2707199.516642553</v>
-      </c>
-      <c r="M65" t="n">
-        <v>2774418.156278858</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>5502560.099925252</v>
-      </c>
-      <c r="C66" t="n">
-        <v>5082483.158705943</v>
-      </c>
-      <c r="D66" t="n">
-        <v>5909919.969912267</v>
-      </c>
-      <c r="E66" t="n">
-        <v>6457540.230821685</v>
-      </c>
-      <c r="F66" t="n">
-        <v>5235425.362137315</v>
-      </c>
-      <c r="G66" t="n">
-        <v>5109463.877656145</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5812791.086193284</v>
-      </c>
-      <c r="I66" t="n">
-        <v>4793552.409995277</v>
-      </c>
-      <c r="J66" t="n">
-        <v>5458729.746342621</v>
-      </c>
-      <c r="K66" t="n">
-        <v>6852184.815608528</v>
-      </c>
-      <c r="L66" t="n">
-        <v>4906557.313111501</v>
-      </c>
-      <c r="M66" t="n">
-        <v>5857115.895659108</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>854105.4811384011</v>
-      </c>
-      <c r="C67" t="n">
-        <v>1078409.582333119</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1299825.630054084</v>
-      </c>
-      <c r="E67" t="n">
-        <v>1266568.039087826</v>
-      </c>
-      <c r="F67" t="n">
-        <v>1062400.709376999</v>
-      </c>
-      <c r="G67" t="n">
-        <v>1139101.403853683</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1122201.254217858</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1156506.640280757</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1519693.871202446</v>
-      </c>
-      <c r="K67" t="n">
-        <v>1332582.750954417</v>
-      </c>
-      <c r="L67" t="n">
-        <v>1004150.670955731</v>
-      </c>
-      <c r="M67" t="n">
-        <v>1337530.551871447</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2969083.333485548</v>
-      </c>
-      <c r="C68" t="n">
-        <v>3019662.363093669</v>
-      </c>
-      <c r="D68" t="n">
-        <v>3070217.112509006</v>
-      </c>
-      <c r="E68" t="n">
-        <v>3120791.778972703</v>
-      </c>
-      <c r="F68" t="n">
-        <v>3171167.95708253</v>
-      </c>
-      <c r="G68" t="n">
-        <v>3221852.992311444</v>
-      </c>
-      <c r="H68" t="n">
-        <v>3272036.528348528</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3322597.808235229</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3373005.753666098</v>
-      </c>
-      <c r="K68" t="n">
-        <v>3423416.1705826</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3473850.410043949</v>
-      </c>
-      <c r="M68" t="n">
-        <v>3524434.682208968</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>2824388.715891673</v>
-      </c>
-      <c r="C69" t="n">
-        <v>2999244.11876469</v>
-      </c>
-      <c r="D69" t="n">
-        <v>3018262.978241755</v>
-      </c>
-      <c r="E69" t="n">
-        <v>3168379.129304236</v>
-      </c>
-      <c r="F69" t="n">
-        <v>3090792.87923108</v>
-      </c>
-      <c r="G69" t="n">
-        <v>3120564.149894859</v>
-      </c>
-      <c r="H69" t="n">
-        <v>3171271.128934011</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3274494.811199668</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3413437.736545553</v>
-      </c>
-      <c r="K69" t="n">
-        <v>3401385.699946271</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3251131.581278436</v>
-      </c>
-      <c r="M69" t="n">
-        <v>3349539.433654154</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>47716861.53746771</v>
-      </c>
-      <c r="C70" t="n">
-        <v>53593169.95821415</v>
-      </c>
-      <c r="D70" t="n">
-        <v>59462552.92677064</v>
-      </c>
-      <c r="E70" t="n">
-        <v>65351365.55742216</v>
-      </c>
-      <c r="F70" t="n">
-        <v>71221391.30761722</v>
-      </c>
-      <c r="G70" t="n">
-        <v>77103485.74630377</v>
-      </c>
-      <c r="H70" t="n">
-        <v>82971231.15481609</v>
-      </c>
-      <c r="I70" t="n">
-        <v>88854536.55889826</v>
-      </c>
-      <c r="J70" t="n">
-        <v>94714633.76764773</v>
-      </c>
-      <c r="K70" t="n">
-        <v>100599946.0006712</v>
-      </c>
-      <c r="L70" t="n">
-        <v>106399535.2302463</v>
-      </c>
-      <c r="M70" t="n">
-        <v>112343536.1385096</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>21306972.49643556</v>
-      </c>
-      <c r="C71" t="n">
-        <v>33399710.20360751</v>
-      </c>
-      <c r="D71" t="n">
-        <v>33654238.17998628</v>
-      </c>
-      <c r="E71" t="n">
-        <v>37537181.28601521</v>
-      </c>
-      <c r="F71" t="n">
-        <v>42614509.97327698</v>
-      </c>
-      <c r="G71" t="n">
-        <v>42055987.35137394</v>
-      </c>
-      <c r="H71" t="n">
-        <v>43407340.98419775</v>
-      </c>
-      <c r="I71" t="n">
-        <v>44494704.28433169</v>
-      </c>
-      <c r="J71" t="n">
-        <v>44524723.86966886</v>
-      </c>
-      <c r="K71" t="n">
-        <v>47360902.80025417</v>
-      </c>
-      <c r="L71" t="n">
-        <v>51886713.42502716</v>
-      </c>
-      <c r="M71" t="n">
-        <v>73283524.91004315</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>-284518.2387748142</v>
-      </c>
-      <c r="C72" t="n">
-        <v>1493590.009056231</v>
-      </c>
-      <c r="D72" t="n">
-        <v>1795155.122383238</v>
-      </c>
-      <c r="E72" t="n">
-        <v>498774.0968083075</v>
-      </c>
-      <c r="F72" t="n">
-        <v>2593511.861994117</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-438178.227198378</v>
-      </c>
-      <c r="H72" t="n">
-        <v>484344.2063986129</v>
-      </c>
-      <c r="I72" t="n">
-        <v>-881.4589092391543</v>
-      </c>
-      <c r="J72" t="n">
-        <v>568528.0082295017</v>
-      </c>
-      <c r="K72" t="n">
-        <v>-282112.7458407551</v>
-      </c>
-      <c r="L72" t="n">
-        <v>658688.1015103976</v>
-      </c>
-      <c r="M72" t="n">
-        <v>65651.02082228253</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>11753557.63671586</v>
-      </c>
-      <c r="C73" t="n">
-        <v>12497888.45862719</v>
-      </c>
-      <c r="D73" t="n">
-        <v>12807999.52024657</v>
-      </c>
-      <c r="E73" t="n">
-        <v>12469816.96244889</v>
-      </c>
-      <c r="F73" t="n">
-        <v>12890719.27101729</v>
-      </c>
-      <c r="G73" t="n">
-        <v>12597577.64194687</v>
-      </c>
-      <c r="H73" t="n">
-        <v>13004195.75764556</v>
-      </c>
-      <c r="I73" t="n">
-        <v>13187782.34323931</v>
-      </c>
-      <c r="J73" t="n">
-        <v>13339235.81912652</v>
-      </c>
-      <c r="K73" t="n">
-        <v>13780935.78668819</v>
-      </c>
-      <c r="L73" t="n">
-        <v>13598911.85330048</v>
-      </c>
-      <c r="M73" t="n">
-        <v>14548356.57187143</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>7725879.757820515</v>
-      </c>
-      <c r="C74" t="n">
-        <v>11995956.14803713</v>
-      </c>
-      <c r="D74" t="n">
-        <v>13017581.19220516</v>
-      </c>
-      <c r="E74" t="n">
-        <v>12770743.45916012</v>
-      </c>
-      <c r="F74" t="n">
-        <v>11949674.35434184</v>
-      </c>
-      <c r="G74" t="n">
-        <v>14845228.66125022</v>
-      </c>
-      <c r="H74" t="n">
-        <v>13830747.50064498</v>
-      </c>
-      <c r="I74" t="n">
-        <v>11903571.13604731</v>
-      </c>
-      <c r="J74" t="n">
-        <v>16317949.72526117</v>
-      </c>
-      <c r="K74" t="n">
-        <v>15589385.83454074</v>
-      </c>
-      <c r="L74" t="n">
-        <v>20455609.89003741</v>
-      </c>
-      <c r="M74" t="n">
-        <v>23604040.42786965</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>26389355.15919639</v>
-      </c>
-      <c r="C75" t="n">
-        <v>28013532.0271473</v>
-      </c>
-      <c r="D75" t="n">
-        <v>30668507.60576616</v>
-      </c>
-      <c r="E75" t="n">
-        <v>31132811.83442819</v>
-      </c>
-      <c r="F75" t="n">
-        <v>33903975.56064533</v>
-      </c>
-      <c r="G75" t="n">
-        <v>38521747.40465277</v>
-      </c>
-      <c r="H75" t="n">
-        <v>36602609.87246352</v>
-      </c>
-      <c r="I75" t="n">
-        <v>38322295.49996986</v>
-      </c>
-      <c r="J75" t="n">
-        <v>34608320.84279026</v>
-      </c>
-      <c r="K75" t="n">
-        <v>38455480.6592287</v>
-      </c>
-      <c r="L75" t="n">
-        <v>37742866.74556644</v>
-      </c>
-      <c r="M75" t="n">
-        <v>42558000.18162224</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>20782043.55179977</v>
-      </c>
-      <c r="C76" t="n">
-        <v>21368060.24802544</v>
-      </c>
-      <c r="D76" t="n">
-        <v>21954083.62942208</v>
-      </c>
-      <c r="E76" t="n">
-        <v>22539784.36977235</v>
-      </c>
-      <c r="F76" t="n">
-        <v>23125246.62492622</v>
-      </c>
-      <c r="G76" t="n">
-        <v>23710586.54332412</v>
-      </c>
-      <c r="H76" t="n">
-        <v>24297166.49989086</v>
-      </c>
-      <c r="I76" t="n">
-        <v>24881487.12093032</v>
-      </c>
-      <c r="J76" t="n">
-        <v>25466951.93911247</v>
-      </c>
-      <c r="K76" t="n">
-        <v>26053223.70391167</v>
-      </c>
-      <c r="L76" t="n">
-        <v>26639009.06556595</v>
-      </c>
-      <c r="M76" t="n">
-        <v>27224623.85137922</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>23160949.65908233</v>
-      </c>
-      <c r="C77" t="n">
-        <v>24110040.51211009</v>
-      </c>
-      <c r="D77" t="n">
-        <v>25058430.02556485</v>
-      </c>
-      <c r="E77" t="n">
-        <v>26007271.25255422</v>
-      </c>
-      <c r="F77" t="n">
-        <v>26955776.921377</v>
-      </c>
-      <c r="G77" t="n">
-        <v>27904977.31132696</v>
-      </c>
-      <c r="H77" t="n">
-        <v>28853118.05757578</v>
-      </c>
-      <c r="I77" t="n">
-        <v>29801677.64794046</v>
-      </c>
-      <c r="J77" t="n">
-        <v>30750591.80930167</v>
-      </c>
-      <c r="K77" t="n">
-        <v>31699818.95114736</v>
-      </c>
-      <c r="L77" t="n">
-        <v>32647758.50603095</v>
-      </c>
-      <c r="M77" t="n">
-        <v>33596436.87258684</v>
+        <v>3683089.365015337</v>
       </c>
     </row>
   </sheetData>
